--- a/biology/Histoire de la zoologie et de la botanique/Jared_Potter_Kirtland/Jared_Potter_Kirtland.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jared_Potter_Kirtland/Jared_Potter_Kirtland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jared Potter Kirtland, né le 10 novembre 1793 à Wallingford (Connecticut) et mort le 10 décembre 1877 à Rockport, aujourd'hui un village annexé à Cleveland, est un médecin, horticulteur et naturaliste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils aîné de Turhand Kirtland et de Mary née Potter. Sa famille s’installe dans l’Ohio alors qu’il avait dix ans. Son grand-père maternel, le médecin Jared Potter (1742-1810), l’initie à l’histoire naturelle. Il possédait de plus un verger qui permet au jeune Kirtland de se livrer à de nombreuses observations sous sa conduite (comme sur la greffe des arbres fruitiers, les abeilles et leurs ennemis, la reproduction du ver à soie). À dix-sept, son grand-père meurt et lui lègue un confortable héritage ainsi que sa bibliothèque.
 Kirtland retourne à Wallingford où il commence à étudier la médecine auprès de médecins locaux. Il reçoit également des leçons privées de deux amis de son grand-père au Yale College (aujourd’hui université Yale) : le botaniste Eli Ives (1779-1861) et le minéralogiste et géologue Benjamin Silliman (1779-1864). Ces trois hommes exercent une profonde influence sur la carrière scientifique de Kirtland.
@@ -551,7 +565,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Frederick C. Waite, « Jared Potter Kirtland, physician, teacher, horticulturist, and eminent naturalist », Ohio Journal of Science, vol. 30, no 3,‎ 1930, p. 153-168 (ISSN 0030-0950).</t>
         </is>
